--- a/docs/교사/Mini Project-01/team-excel.xlsx
+++ b/docs/교사/Mini Project-01/team-excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java-Minee\__KDT\Mini-Project 1\조편성\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java-Minee\__KDT\_422-1\_remote\docs\교사\Mini Project-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF0122-CE45-4708-88B8-F6E5B415F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E45870-70AC-4AB1-9443-7345B476191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,8 +140,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ \(aaa\)"/>
-    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ \(aaa\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -335,19 +335,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,14 +365,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +691,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>2</v>
@@ -899,23 +899,23 @@
         <v>9</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
